--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/43_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/43_225-80R17.xlsx
@@ -674,43 +674,43 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2426942120022474</v>
       </c>
       <c r="E2">
-        <v>0.2519239080666405</v>
+        <v>0.1026453173711289</v>
       </c>
       <c r="F2">
-        <v>0.1105417061724131</v>
+        <v>0.08065894392847131</v>
       </c>
       <c r="G2">
-        <v>0.01607558873453911</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002058370929388513</v>
       </c>
       <c r="I2">
-        <v>0.09823571607917492</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.001288278796568246</v>
+        <v>0.0668370920222371</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.05331441684375684</v>
       </c>
       <c r="M2">
-        <v>0.1887133083069729</v>
+        <v>0.04436289975280728</v>
       </c>
       <c r="N2">
-        <v>0.06395352906195167</v>
+        <v>0.09553954979640085</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.007212531687238018</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.0828159869276366</v>
       </c>
       <c r="T2">
-        <v>0.07205733112879813</v>
+        <v>0.052456960982543</v>
       </c>
       <c r="U2">
-        <v>0.03910980139689856</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.01649653351302603</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0001842111647858968</v>
+        <v>0.01339688408789592</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -743,31 +743,31 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.004106352378702024</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.006687109626234912</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.06083767684536218</v>
       </c>
       <c r="AD2">
-        <v>0.06220513940092288</v>
+        <v>0.08075606978242254</v>
       </c>
       <c r="AE2">
-        <v>0.03919216555082713</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.008882013534657221</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.02034730708688681</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.0006898927275959947</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.01372319431286747</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -784,43 +784,43 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.005360819244273097</v>
       </c>
       <c r="E3">
-        <v>0.1470035467888445</v>
+        <v>0.1644565287131067</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.151073547890051</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.08314121075335072</v>
       </c>
       <c r="H3">
-        <v>0.1077824170375209</v>
+        <v>0.003182192577867525</v>
       </c>
       <c r="I3">
-        <v>0.1666286272486505</v>
+        <v>0.02695301632319361</v>
       </c>
       <c r="J3">
-        <v>0.001366348466393899</v>
+        <v>0.002182068503971958</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.02787175162964317</v>
+        <v>0.1412916846777896</v>
       </c>
       <c r="M3">
-        <v>0.2194743388620453</v>
+        <v>0.01977649272033685</v>
       </c>
       <c r="N3">
-        <v>0.009303284286634421</v>
+        <v>0.07750521520352811</v>
       </c>
       <c r="O3">
-        <v>0.04345810880555499</v>
+        <v>0.06615693784213755</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.005063433284948954</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.06258260485195705</v>
+        <v>0.04908675069103582</v>
       </c>
       <c r="U3">
-        <v>0.02244175613669052</v>
+        <v>0.0503252465318668</v>
       </c>
       <c r="V3">
-        <v>0.02475619596431839</v>
+        <v>0.01021696918455251</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.003354967597341072</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.05436714791819319</v>
+        <v>0.08203622181866618</v>
       </c>
       <c r="AE3">
-        <v>0.01931756385925222</v>
+        <v>0.0588366964419817</v>
       </c>
       <c r="AF3">
-        <v>0.03354527519544844</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.04812347852137905</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.01197755442747338</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -894,67 +894,67 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1940117259056038</v>
       </c>
       <c r="E4">
-        <v>0.1591732674828223</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.1720382225504825</v>
       </c>
       <c r="G4">
-        <v>0.1369869115525063</v>
+        <v>0.00927180157523313</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.04457713954488271</v>
       </c>
       <c r="I4">
-        <v>0.01905906193690854</v>
+        <v>0.02374528212449142</v>
       </c>
       <c r="J4">
-        <v>0.01924669312340637</v>
+        <v>0.004958197984675218</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.01244950077427171</v>
       </c>
       <c r="L4">
-        <v>0.01216151542146813</v>
+        <v>0.1557682670236019</v>
       </c>
       <c r="M4">
-        <v>0.249702962087949</v>
+        <v>0.0107342922429261</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1212385442177331</v>
       </c>
       <c r="O4">
-        <v>0.02373271564944218</v>
+        <v>0.004629440362786883</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.007730799195876559</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0337648663289962</v>
       </c>
       <c r="T4">
-        <v>0.07998166826895249</v>
+        <v>0.03953479626304831</v>
       </c>
       <c r="U4">
-        <v>0.04992556331790622</v>
+        <v>0.03371760439834581</v>
       </c>
       <c r="V4">
-        <v>0.01337134247220414</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.007570256510285782</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.01862952827928177</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -963,34 +963,34 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.007570256510285782</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.01445309490627631</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.03283538591645814</v>
       </c>
       <c r="AD4">
-        <v>0.02383303885223687</v>
+        <v>0.09125345094921811</v>
       </c>
       <c r="AE4">
-        <v>0.1083385035335838</v>
+        <v>0.01547148183724506</v>
       </c>
       <c r="AF4">
-        <v>0.01455139626644007</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0201548398828356</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.01382658474933202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1004,43 +1004,43 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.001732651403371061</v>
+        <v>0.1487629731201769</v>
       </c>
       <c r="E5">
-        <v>0.1317565768799134</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2636899213999809</v>
+        <v>0.1542845132380301</v>
       </c>
       <c r="G5">
-        <v>0.006079871567435272</v>
+        <v>0.03008772307443428</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02187922121909153</v>
       </c>
       <c r="I5">
-        <v>0.0158401314656137</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01746333848398943</v>
       </c>
       <c r="K5">
-        <v>0.01964223253420466</v>
+        <v>0.009202455908526442</v>
       </c>
       <c r="L5">
-        <v>0.06106641965539912</v>
+        <v>0.1479327321819442</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.006015779919183742</v>
       </c>
       <c r="N5">
-        <v>0.1227470128437885</v>
+        <v>0.1726782939221068</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.002645390859327958</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.003933544151251495</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1049,55 +1049,55 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.00153553811205575</v>
+        <v>0.01335498471721197</v>
       </c>
       <c r="T5">
-        <v>0.07998341113433814</v>
+        <v>0.0869139699049179</v>
       </c>
       <c r="U5">
-        <v>0.02258398050245096</v>
+        <v>0.02940002049959808</v>
       </c>
       <c r="V5">
-        <v>0.02741382103853584</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.009581952360340876</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0003190513073363643</v>
+        <v>0.006750528239828097</v>
       </c>
       <c r="AA5">
-        <v>0.01952276781702894</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.02484223685993864</v>
       </c>
       <c r="AD5">
-        <v>0.1221912954536126</v>
+        <v>0.1015319663716553</v>
       </c>
       <c r="AE5">
-        <v>0.05406050268843452</v>
+        <v>0.01368553707307506</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.008800590986042134</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.03145227085011734</v>
+        <v>0.008634790255712007</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1117,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2021144347836351</v>
+        <v>0.219030519985311</v>
       </c>
       <c r="F6">
-        <v>0.1005881476466797</v>
+        <v>0.1440630442889255</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.08270120754760174</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.003180728075518872</v>
       </c>
       <c r="I6">
-        <v>0.04387018018607364</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.05688072976212152</v>
+        <v>0.1399012388785599</v>
       </c>
       <c r="M6">
-        <v>0.2390287971998784</v>
+        <v>0.003839780924867571</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.06408479394882746</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.08330271309149115</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.001792426598723408</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1162,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1478453629174132</v>
+        <v>0.05277640679472417</v>
       </c>
       <c r="U6">
-        <v>0.02877466131322878</v>
+        <v>0.05952278769123599</v>
       </c>
       <c r="V6">
-        <v>0.004369473195813933</v>
+        <v>0.00609670544330726</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.03509716322769319</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1183,34 +1183,34 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.006018275700335</v>
+        <v>0.002876642640159113</v>
       </c>
       <c r="AB6">
-        <v>0.003769684870234588</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.07294258316759783</v>
+        <v>0.06637625153783305</v>
       </c>
       <c r="AE6">
-        <v>0.0385816428160815</v>
+        <v>0.06512369579140845</v>
       </c>
       <c r="AF6">
-        <v>0.01575886831947424</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.002620663834685335</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001739331059054118</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>0.005331056761505443</v>
       </c>
     </row>
   </sheetData>
@@ -1347,97 +1347,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2426942120022474</v>
       </c>
       <c r="E2">
-        <v>0.2519239080666405</v>
+        <v>0.3453395293733763</v>
       </c>
       <c r="F2">
-        <v>0.3624656142390536</v>
+        <v>0.4259984733018476</v>
       </c>
       <c r="G2">
-        <v>0.3785412029735927</v>
+        <v>0.4259984733018476</v>
       </c>
       <c r="H2">
-        <v>0.3785412029735927</v>
+        <v>0.4280568442312361</v>
       </c>
       <c r="I2">
-        <v>0.4767769190527676</v>
+        <v>0.4280568442312361</v>
       </c>
       <c r="J2">
-        <v>0.4767769190527676</v>
+        <v>0.4280568442312361</v>
       </c>
       <c r="K2">
-        <v>0.4780651978493359</v>
+        <v>0.4948939362534732</v>
       </c>
       <c r="L2">
-        <v>0.4780651978493359</v>
+        <v>0.54820835309723</v>
       </c>
       <c r="M2">
-        <v>0.6667785061563087</v>
+        <v>0.5925712528500373</v>
       </c>
       <c r="N2">
-        <v>0.7307320352182605</v>
+        <v>0.6881108026464382</v>
       </c>
       <c r="O2">
-        <v>0.7307320352182605</v>
+        <v>0.6881108026464382</v>
       </c>
       <c r="P2">
-        <v>0.7307320352182605</v>
+        <v>0.6953233343336762</v>
       </c>
       <c r="Q2">
-        <v>0.7307320352182605</v>
+        <v>0.6953233343336762</v>
       </c>
       <c r="R2">
-        <v>0.7307320352182605</v>
+        <v>0.6953233343336762</v>
       </c>
       <c r="S2">
-        <v>0.7307320352182605</v>
+        <v>0.7781393212613128</v>
       </c>
       <c r="T2">
-        <v>0.8027893663470586</v>
+        <v>0.8305962822438558</v>
       </c>
       <c r="U2">
-        <v>0.8418991677439571</v>
+        <v>0.8305962822438558</v>
       </c>
       <c r="V2">
-        <v>0.8583957012569832</v>
+        <v>0.8305962822438558</v>
       </c>
       <c r="W2">
-        <v>0.8583957012569832</v>
+        <v>0.8305962822438558</v>
       </c>
       <c r="X2">
-        <v>0.858579912421769</v>
+        <v>0.8439931663317518</v>
       </c>
       <c r="Y2">
-        <v>0.858579912421769</v>
+        <v>0.8439931663317518</v>
       </c>
       <c r="Z2">
-        <v>0.858579912421769</v>
+        <v>0.8439931663317518</v>
       </c>
       <c r="AA2">
-        <v>0.8626862648004711</v>
+        <v>0.8439931663317518</v>
       </c>
       <c r="AB2">
-        <v>0.8693733744267059</v>
+        <v>0.8439931663317518</v>
       </c>
       <c r="AC2">
-        <v>0.8693733744267059</v>
+        <v>0.904830843177114</v>
       </c>
       <c r="AD2">
-        <v>0.9315785138276288</v>
+        <v>0.9855869129595366</v>
       </c>
       <c r="AE2">
-        <v>0.970770679378456</v>
+        <v>0.9855869129595366</v>
       </c>
       <c r="AF2">
-        <v>0.9796526929131132</v>
+        <v>0.9855869129595366</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9855869129595366</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9862768056871326</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -1457,94 +1457,94 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.005360819244273097</v>
       </c>
       <c r="E3">
-        <v>0.1470035467888445</v>
+        <v>0.1698173479573798</v>
       </c>
       <c r="F3">
-        <v>0.1470035467888445</v>
+        <v>0.3208908958474308</v>
       </c>
       <c r="G3">
-        <v>0.1470035467888445</v>
+        <v>0.4040321066007815</v>
       </c>
       <c r="H3">
-        <v>0.2547859638263654</v>
+        <v>0.407214299178649</v>
       </c>
       <c r="I3">
-        <v>0.4214145910750159</v>
+        <v>0.4341673155018426</v>
       </c>
       <c r="J3">
-        <v>0.4227809395414098</v>
+        <v>0.4363493840058146</v>
       </c>
       <c r="K3">
-        <v>0.4227809395414098</v>
+        <v>0.4363493840058146</v>
       </c>
       <c r="L3">
-        <v>0.450652691171053</v>
+        <v>0.5776410686836042</v>
       </c>
       <c r="M3">
-        <v>0.6701270300330983</v>
+        <v>0.5974175614039411</v>
       </c>
       <c r="N3">
-        <v>0.6794303143197327</v>
+        <v>0.6749227766074692</v>
       </c>
       <c r="O3">
-        <v>0.7228884231252877</v>
+        <v>0.7410797144496069</v>
       </c>
       <c r="P3">
-        <v>0.7228884231252877</v>
+        <v>0.7461431477345558</v>
       </c>
       <c r="Q3">
-        <v>0.7228884231252877</v>
+        <v>0.7461431477345558</v>
       </c>
       <c r="R3">
-        <v>0.7228884231252877</v>
+        <v>0.7461431477345558</v>
       </c>
       <c r="S3">
-        <v>0.7228884231252877</v>
+        <v>0.7461431477345558</v>
       </c>
       <c r="T3">
-        <v>0.7854710279772448</v>
+        <v>0.7952298984255917</v>
       </c>
       <c r="U3">
-        <v>0.8079127841139353</v>
+        <v>0.8455551449574584</v>
       </c>
       <c r="V3">
-        <v>0.8326689800782537</v>
+        <v>0.8557721141420109</v>
       </c>
       <c r="W3">
-        <v>0.8326689800782537</v>
+        <v>0.8557721141420109</v>
       </c>
       <c r="X3">
-        <v>0.8326689800782537</v>
+        <v>0.8557721141420109</v>
       </c>
       <c r="Y3">
-        <v>0.8326689800782537</v>
+        <v>0.8557721141420109</v>
       </c>
       <c r="Z3">
-        <v>0.8326689800782537</v>
+        <v>0.8557721141420109</v>
       </c>
       <c r="AA3">
-        <v>0.8326689800782537</v>
+        <v>0.859127081739352</v>
       </c>
       <c r="AB3">
-        <v>0.8326689800782537</v>
+        <v>0.859127081739352</v>
       </c>
       <c r="AC3">
-        <v>0.8326689800782537</v>
+        <v>0.859127081739352</v>
       </c>
       <c r="AD3">
-        <v>0.8870361279964469</v>
+        <v>0.9411633035580182</v>
       </c>
       <c r="AE3">
-        <v>0.9063536918556991</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.9398989670511476</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9880224455725266</v>
+        <v>1</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -1567,100 +1567,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1940117259056038</v>
       </c>
       <c r="E4">
-        <v>0.1591732674828223</v>
+        <v>0.1940117259056038</v>
       </c>
       <c r="F4">
-        <v>0.1591732674828223</v>
+        <v>0.3660499484560863</v>
       </c>
       <c r="G4">
-        <v>0.2961601790353286</v>
+        <v>0.3753217500313194</v>
       </c>
       <c r="H4">
-        <v>0.2961601790353286</v>
+        <v>0.4198988895762021</v>
       </c>
       <c r="I4">
-        <v>0.3152192409722371</v>
+        <v>0.4436441717006935</v>
       </c>
       <c r="J4">
-        <v>0.3344659340956435</v>
+        <v>0.4486023696853688</v>
       </c>
       <c r="K4">
-        <v>0.3344659340956435</v>
+        <v>0.4610518704596405</v>
       </c>
       <c r="L4">
-        <v>0.3466274495171117</v>
+        <v>0.6168201374832424</v>
       </c>
       <c r="M4">
-        <v>0.5963304116050607</v>
+        <v>0.6275544297261685</v>
       </c>
       <c r="N4">
-        <v>0.5963304116050607</v>
+        <v>0.7487929739439017</v>
       </c>
       <c r="O4">
-        <v>0.6200631272545029</v>
+        <v>0.7534224143066885</v>
       </c>
       <c r="P4">
-        <v>0.6200631272545029</v>
+        <v>0.7534224143066885</v>
       </c>
       <c r="Q4">
-        <v>0.6277939264503795</v>
+        <v>0.7534224143066885</v>
       </c>
       <c r="R4">
-        <v>0.6277939264503795</v>
+        <v>0.7534224143066885</v>
       </c>
       <c r="S4">
-        <v>0.6277939264503795</v>
+        <v>0.7871872806356848</v>
       </c>
       <c r="T4">
-        <v>0.7077755947193319</v>
+        <v>0.8267220768987331</v>
       </c>
       <c r="U4">
-        <v>0.7577011580372381</v>
+        <v>0.8604396812970789</v>
       </c>
       <c r="V4">
-        <v>0.7710725005094423</v>
+        <v>0.8604396812970789</v>
       </c>
       <c r="W4">
-        <v>0.7786427570197281</v>
+        <v>0.8604396812970789</v>
       </c>
       <c r="X4">
-        <v>0.7972722852990098</v>
+        <v>0.8604396812970789</v>
       </c>
       <c r="Y4">
-        <v>0.7972722852990098</v>
+        <v>0.8604396812970789</v>
       </c>
       <c r="Z4">
-        <v>0.7972722852990098</v>
+        <v>0.8604396812970789</v>
       </c>
       <c r="AA4">
-        <v>0.8048425418092956</v>
+        <v>0.8604396812970789</v>
       </c>
       <c r="AB4">
-        <v>0.8192956367155719</v>
+        <v>0.8604396812970789</v>
       </c>
       <c r="AC4">
-        <v>0.8192956367155719</v>
+        <v>0.8932750672135371</v>
       </c>
       <c r="AD4">
-        <v>0.8431286755678088</v>
+        <v>0.9845285181627552</v>
       </c>
       <c r="AE4">
-        <v>0.9514671791013927</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9660185753678328</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9660185753678328</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9861734152506684</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9861734152506684</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
         <v>1</v>
@@ -1677,103 +1677,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.001732651403371061</v>
+        <v>0.1487629731201769</v>
       </c>
       <c r="E5">
-        <v>0.1334892282832844</v>
+        <v>0.1487629731201769</v>
       </c>
       <c r="F5">
-        <v>0.3971791496832653</v>
+        <v>0.303047486358207</v>
       </c>
       <c r="G5">
-        <v>0.4032590212507006</v>
+        <v>0.3331352094326413</v>
       </c>
       <c r="H5">
-        <v>0.4032590212507006</v>
+        <v>0.3550144306517328</v>
       </c>
       <c r="I5">
-        <v>0.4190991527163143</v>
+        <v>0.3550144306517328</v>
       </c>
       <c r="J5">
-        <v>0.4190991527163143</v>
+        <v>0.3724777691357223</v>
       </c>
       <c r="K5">
-        <v>0.4387413852505189</v>
+        <v>0.3816802250442487</v>
       </c>
       <c r="L5">
-        <v>0.499807804905918</v>
+        <v>0.5296129572261928</v>
       </c>
       <c r="M5">
-        <v>0.499807804905918</v>
+        <v>0.5356287371453766</v>
       </c>
       <c r="N5">
-        <v>0.6225548177497066</v>
+        <v>0.7083070310674834</v>
       </c>
       <c r="O5">
-        <v>0.6225548177497066</v>
+        <v>0.7109524219268113</v>
       </c>
       <c r="P5">
-        <v>0.6225548177497066</v>
+        <v>0.7148859660780628</v>
       </c>
       <c r="Q5">
-        <v>0.6225548177497066</v>
+        <v>0.7148859660780628</v>
       </c>
       <c r="R5">
-        <v>0.6225548177497066</v>
+        <v>0.7148859660780628</v>
       </c>
       <c r="S5">
-        <v>0.6240903558617623</v>
+        <v>0.7282409507952747</v>
       </c>
       <c r="T5">
-        <v>0.7040737669961005</v>
+        <v>0.8151549207001927</v>
       </c>
       <c r="U5">
-        <v>0.7266577474985514</v>
+        <v>0.8445549411997908</v>
       </c>
       <c r="V5">
-        <v>0.7540715685370872</v>
+        <v>0.8445549411997908</v>
       </c>
       <c r="W5">
-        <v>0.7540715685370872</v>
+        <v>0.8445549411997908</v>
       </c>
       <c r="X5">
-        <v>0.7636535208974281</v>
+        <v>0.8445549411997908</v>
       </c>
       <c r="Y5">
-        <v>0.7636535208974281</v>
+        <v>0.8445549411997908</v>
       </c>
       <c r="Z5">
-        <v>0.7639725722047644</v>
+        <v>0.8513054694396189</v>
       </c>
       <c r="AA5">
-        <v>0.7834953400217934</v>
+        <v>0.8513054694396189</v>
       </c>
       <c r="AB5">
-        <v>0.7834953400217934</v>
+        <v>0.8513054694396189</v>
       </c>
       <c r="AC5">
-        <v>0.7834953400217934</v>
+        <v>0.8761477062995575</v>
       </c>
       <c r="AD5">
-        <v>0.9056866354754061</v>
+        <v>0.9776796726712128</v>
       </c>
       <c r="AE5">
-        <v>0.9597471381638406</v>
+        <v>0.9913652097442879</v>
       </c>
       <c r="AF5">
-        <v>0.9597471381638406</v>
+        <v>0.9913652097442879</v>
       </c>
       <c r="AG5">
-        <v>0.9685477291498827</v>
+        <v>0.9913652097442879</v>
       </c>
       <c r="AH5">
-        <v>0.9685477291498827</v>
+        <v>0.9913652097442879</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1790,97 +1790,97 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2021144347836351</v>
+        <v>0.219030519985311</v>
       </c>
       <c r="F6">
-        <v>0.3027025824303148</v>
+        <v>0.3630935642742364</v>
       </c>
       <c r="G6">
-        <v>0.3027025824303148</v>
+        <v>0.4457947718218382</v>
       </c>
       <c r="H6">
-        <v>0.3027025824303148</v>
+        <v>0.4489754998973571</v>
       </c>
       <c r="I6">
-        <v>0.3465727626163885</v>
+        <v>0.4489754998973571</v>
       </c>
       <c r="J6">
-        <v>0.3465727626163885</v>
+        <v>0.4489754998973571</v>
       </c>
       <c r="K6">
-        <v>0.3465727626163885</v>
+        <v>0.4489754998973571</v>
       </c>
       <c r="L6">
-        <v>0.40345349237851</v>
+        <v>0.5888767387759171</v>
       </c>
       <c r="M6">
-        <v>0.6424822895783885</v>
+        <v>0.5927165197007846</v>
       </c>
       <c r="N6">
-        <v>0.6424822895783885</v>
+        <v>0.6568013136496121</v>
       </c>
       <c r="O6">
-        <v>0.6424822895783885</v>
+        <v>0.7401040267411033</v>
       </c>
       <c r="P6">
-        <v>0.6424822895783885</v>
+        <v>0.7418964533398267</v>
       </c>
       <c r="Q6">
-        <v>0.6424822895783885</v>
+        <v>0.7418964533398267</v>
       </c>
       <c r="R6">
-        <v>0.6424822895783885</v>
+        <v>0.7418964533398267</v>
       </c>
       <c r="S6">
-        <v>0.6424822895783885</v>
+        <v>0.7418964533398267</v>
       </c>
       <c r="T6">
-        <v>0.7903276524958017</v>
+        <v>0.7946728601345509</v>
       </c>
       <c r="U6">
-        <v>0.8191023138090305</v>
+        <v>0.8541956478257868</v>
       </c>
       <c r="V6">
-        <v>0.8234717870048445</v>
+        <v>0.860292353269094</v>
       </c>
       <c r="W6">
-        <v>0.8234717870048445</v>
+        <v>0.860292353269094</v>
       </c>
       <c r="X6">
-        <v>0.8585689502325377</v>
+        <v>0.860292353269094</v>
       </c>
       <c r="Y6">
-        <v>0.8585689502325377</v>
+        <v>0.860292353269094</v>
       </c>
       <c r="Z6">
-        <v>0.8585689502325377</v>
+        <v>0.860292353269094</v>
       </c>
       <c r="AA6">
-        <v>0.8645872259328726</v>
+        <v>0.8631689959092531</v>
       </c>
       <c r="AB6">
-        <v>0.8683569108031072</v>
+        <v>0.8631689959092531</v>
       </c>
       <c r="AC6">
-        <v>0.8683569108031072</v>
+        <v>0.8631689959092531</v>
       </c>
       <c r="AD6">
-        <v>0.941299493970705</v>
+        <v>0.9295452474470862</v>
       </c>
       <c r="AE6">
-        <v>0.9798811367867865</v>
+        <v>0.9946689432384946</v>
       </c>
       <c r="AF6">
-        <v>0.9956400051062607</v>
+        <v>0.9946689432384946</v>
       </c>
       <c r="AG6">
-        <v>0.998260668940946</v>
+        <v>0.9946689432384946</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9946689432384946</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9946689432384946</v>
       </c>
       <c r="AJ6">
         <v>1</v>
@@ -1948,16 +1948,16 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6667785061563087</v>
+        <v>0.54820835309723</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -1992,16 +1992,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6701270300330983</v>
+        <v>0.5776410686836042</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -2030,16 +2030,16 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5963304116050607</v>
+        <v>0.6168201374832424</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -2071,19 +2071,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6225548177497066</v>
+        <v>0.5296129572261928</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -2115,16 +2115,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6424822895783885</v>
+        <v>0.5888767387759171</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>43</v>
@@ -2207,19 +2207,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7307320352182605</v>
+        <v>0.7781393212613128</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7228884231252877</v>
+        <v>0.7410797144496069</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -2289,19 +2289,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7077755947193319</v>
+        <v>0.7487929739439017</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>43</v>
@@ -2330,19 +2330,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7040737669961005</v>
+        <v>0.7083070310674834</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -2374,16 +2374,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7903276524958017</v>
+        <v>0.7401040267411033</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>43</v>
@@ -2466,7 +2466,7 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>19</v>
@@ -2475,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8027893663470586</v>
+        <v>0.8305962822438558</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8079127841139353</v>
+        <v>0.8455551449574584</v>
       </c>
       <c r="G3">
         <v>18</v>
@@ -2548,19 +2548,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8048425418092956</v>
+        <v>0.8267220768987331</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>43</v>
@@ -2589,19 +2589,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9056866354754061</v>
+        <v>0.8151549207001927</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8191023138090305</v>
+        <v>0.8541956478257868</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -2725,16 +2725,16 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9315785138276288</v>
+        <v>0.904830843177114</v>
       </c>
       <c r="G2">
         <v>27</v>
@@ -2769,16 +2769,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9063536918556991</v>
+        <v>0.9411633035580182</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -2807,16 +2807,16 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9514671791013927</v>
+        <v>0.9845285181627552</v>
       </c>
       <c r="G4">
         <v>28</v>
@@ -2848,7 +2848,7 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>29</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9056866354754061</v>
+        <v>0.9776796726712128</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.941299493970705</v>
+        <v>0.9295452474470862</v>
       </c>
       <c r="G6">
         <v>27</v>
